--- a/Case&Result/case_ChatPriceSelf.xlsx
+++ b/Case&Result/case_ChatPriceSelf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>mobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -368,11 +359,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" s="2">
+        <v>18500385003</v>
+      </c>
+      <c r="B1">
+        <v>3300</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -380,6 +371,30 @@
         <v>18500385003</v>
       </c>
       <c r="B2">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>18500385003</v>
+      </c>
+      <c r="B3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>18500385003</v>
+      </c>
+      <c r="B4">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>18500385003</v>
+      </c>
+      <c r="B5">
         <v>3300</v>
       </c>
     </row>

--- a/Case&Result/case_ChatPriceSelf.xlsx
+++ b/Case&Result/case_ChatPriceSelf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,7 +346,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -375,28 +371,13 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>18500385003</v>
-      </c>
-      <c r="B3">
-        <v>3300</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>18500385003</v>
-      </c>
-      <c r="B4">
-        <v>3300</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>18500385003</v>
-      </c>
-      <c r="B5">
-        <v>3300</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
